--- a/results/mp/deberta/corona/confidence/168/stop-words-topk-desired-masking-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/168/stop-words-topk-desired-masking-0.15/avg_0.004_scores.xlsx
@@ -91,13 +91,13 @@
     <t>hand</t>
   </si>
   <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>positive</t>
   </si>
   <si>
     <t>share</t>
@@ -628,7 +628,7 @@
         <v>15</v>
       </c>
       <c r="J1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1088,25 +1088,25 @@
         <v>25</v>
       </c>
       <c r="K12">
-        <v>0.7665198237885462</v>
+        <v>0.7528089887640449</v>
       </c>
       <c r="L12">
-        <v>174</v>
+        <v>67</v>
       </c>
       <c r="M12">
-        <v>186</v>
+        <v>72</v>
       </c>
       <c r="N12">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="O12">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P12" t="b">
         <v>1</v>
       </c>
       <c r="Q12">
-        <v>53</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1114,25 +1114,25 @@
         <v>26</v>
       </c>
       <c r="K13">
-        <v>0.7528089887640449</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L13">
-        <v>67</v>
+        <v>42</v>
       </c>
       <c r="M13">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="N13">
-        <v>0.93</v>
+        <v>0.98</v>
       </c>
       <c r="O13">
-        <v>0.06999999999999995</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P13" t="b">
         <v>1</v>
       </c>
       <c r="Q13">
-        <v>22</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1140,25 +1140,25 @@
         <v>27</v>
       </c>
       <c r="K14">
-        <v>0.7368421052631579</v>
+        <v>0.7280334728033473</v>
       </c>
       <c r="L14">
-        <v>42</v>
+        <v>174</v>
       </c>
       <c r="M14">
-        <v>43</v>
+        <v>174</v>
       </c>
       <c r="N14">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O14">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>15</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1244,25 +1244,25 @@
         <v>31</v>
       </c>
       <c r="K18">
-        <v>0.6953846153846154</v>
+        <v>0.6647058823529411</v>
       </c>
       <c r="L18">
         <v>226</v>
       </c>
       <c r="M18">
-        <v>241</v>
+        <v>226</v>
       </c>
       <c r="N18">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>99</v>
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="10:17">
